--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1388734.056502768</v>
+        <v>1394325.618954355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543014</v>
+        <v>1716675.474930527</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977811</v>
+        <v>7798735.927490108</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7208348.003873006</v>
+        <v>7255797.907030562</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>182.925927060141</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="3">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4822250575376</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -959,7 +961,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>2.10361286409312</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.52529077486052</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>203.8573074403709</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>57.37052737633138</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>276.779687315073</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85905444009087</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>297.0197694717892</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>313.6778599345593</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>19.85905444009087</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>269.1458746145464</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3553607729761</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>159.3149947016329</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2090,10 +2092,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>123.0771934977091</v>
+        <v>330.7513108517467</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.7890777533881</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>30.26848340721873</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>116.876383545772</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>194.9632162960284</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.4331415698977</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.79877150265222</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>175.6983641828948</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>304.0769707475227</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -2807,10 +2809,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293384</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>27.69379900215345</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>129.1391627679192</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3044,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>24.48968657143331</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>233.2385090293384</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>127.7349619690956</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>260.4059240983862</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.720831593190336</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.96189723698666</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.6158245190444</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>321.5672360626269</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>302.1480073738677</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3658,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>86.64940239198995</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>153.1349037771192</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>35.44596155376397</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>140.0736715804088</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>115.2540412271709</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.1045920014101</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9259270601401</v>
+        <v>181.0739242066294</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4068,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>3.786554340598055</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>173.9226398638123</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>76.19311257242664</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>61.24043455025507</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778.4054098058323</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C2" t="n">
-        <v>385.2299083087628</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D2" t="n">
-        <v>385.2299083087628</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E2" t="n">
-        <v>385.2299083087628</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>385.2299083087628</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>385.2299083087628</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.842504695284</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.843469663571</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X2" t="n">
-        <v>1575.390864596628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y2" t="n">
-        <v>1178.900155517229</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L3" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M3" t="n">
-        <v>1009.629923393023</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P3" t="n">
         <v>2146.089571124861</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>979.0728748920524</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="C5" t="n">
-        <v>585.897373394983</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4592,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2844.462869050715</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2588.710139485313</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2246.603330188832</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>1875.604295157119</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>1486.151690090176</v>
+        <v>1706.965878619288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.660981010777</v>
+        <v>1310.475169539889</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C7" t="n">
-        <v>195.2135530670377</v>
+        <v>793.3610323116571</v>
       </c>
       <c r="D7" t="n">
-        <v>195.2135530670377</v>
+        <v>637.7279192141718</v>
       </c>
       <c r="E7" t="n">
-        <v>195.2135530670377</v>
+        <v>482.1691070733743</v>
       </c>
       <c r="F7" t="n">
-        <v>195.2135530670377</v>
+        <v>324.8431722863473</v>
       </c>
       <c r="G7" t="n">
-        <v>195.2135530670377</v>
+        <v>156.5891183857928</v>
       </c>
       <c r="H7" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
         <v>62.11912770411553</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.2135530670377</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2142.621142693967</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C8" t="n">
-        <v>2142.621142693967</v>
+        <v>522.652680240431</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>522.652680240431</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>120.0691553569755</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>120.0691553569755</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>120.0691553569755</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>120.0691553569755</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4838,16 +4840,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.621142693967</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.621142693967</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.621142693967</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>2142.621142693967</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4889,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>401.1300252290284</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>401.1300252290284</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>401.1300252290284</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
         <v>381.0703742794417</v>
@@ -4984,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1002.791811865005</v>
+        <v>893.6517152721435</v>
       </c>
       <c r="C11" t="n">
-        <v>1002.791811865005</v>
+        <v>500.4762137750741</v>
       </c>
       <c r="D11" t="n">
-        <v>617.350683081673</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E11" t="n">
-        <v>617.350683081673</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F11" t="n">
         <v>200.4562446116507</v>
@@ -5078,13 +5080,13 @@
         <v>2080.089775129883</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031227</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y11" t="n">
-        <v>1002.791811865005</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.629923393023</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.407894603582</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>401.1300252290284</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>401.1300252290284</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>401.1300252290284</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
         <v>381.0703742794417</v>
@@ -5458,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2535.796644191037</v>
+        <v>727.159149013858</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>333.9836475167886</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,34 +5533,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>3067.963471491298</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U17" t="n">
-        <v>3067.963471491298</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V17" t="n">
-        <v>3067.963471491298</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W17" t="n">
-        <v>3067.963471491298</v>
+        <v>1913.597208871597</v>
       </c>
       <c r="X17" t="n">
-        <v>2936.291389902433</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="Y17" t="n">
-        <v>2936.291389902433</v>
+        <v>1127.653894725255</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.744905612751</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5698,25 +5700,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>802.6419131733114</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T19" t="n">
-        <v>802.6419131733114</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U19" t="n">
-        <v>802.6419131733114</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V19" t="n">
-        <v>802.6419131733114</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W19" t="n">
-        <v>519.3115111044891</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X19" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1391.358617313359</v>
+        <v>1577.411516051555</v>
       </c>
       <c r="C20" t="n">
-        <v>1391.358617313359</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="D20" t="n">
-        <v>1005.917488530027</v>
+        <v>798.7948857711535</v>
       </c>
       <c r="E20" t="n">
-        <v>603.3339636465712</v>
+        <v>396.211360887698</v>
       </c>
       <c r="F20" t="n">
-        <v>186.439525176549</v>
+        <v>396.211360887698</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,34 +5770,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2559.343107135867</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W20" t="n">
-        <v>2188.344072104155</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.344072104155</v>
+        <v>2374.396970842351</v>
       </c>
       <c r="Y20" t="n">
-        <v>1791.853363024756</v>
+        <v>1977.906261762952</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5828,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L21" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
         <v>1974.833293963354</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>2403.337642228635</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>2403.337642228635</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>2403.337642228635</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>2403.337642228635</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>2403.337642228635</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>2235.083588328081</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V22" t="n">
-        <v>412.1480133083932</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W22" t="n">
-        <v>412.1480133083932</v>
+        <v>2822.625983136953</v>
       </c>
       <c r="X22" t="n">
-        <v>178.0676910913762</v>
+        <v>2588.545660919936</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.0676910913762</v>
+        <v>2588.545660919936</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5989,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>787.6208502301403</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1415.392499856821</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>2071.17047106738</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>2587.690753658361</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2993.312122374758</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6174,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>845.5091971691305</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T25" t="n">
-        <v>845.5091971691305</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U25" t="n">
-        <v>845.5091971691305</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="V25" t="n">
-        <v>579.5298519899548</v>
+        <v>259.0516694172755</v>
       </c>
       <c r="W25" t="n">
-        <v>296.1994499211324</v>
+        <v>259.0516694172755</v>
       </c>
       <c r="X25" t="n">
         <v>62.11912770411553</v>
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>613.6190001236475</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C26" t="n">
-        <v>613.6190001236475</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D26" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E26" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F26" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K26" t="n">
         <v>565.7512566404055</v>
@@ -6245,31 +6247,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q26" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991764</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426363</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129882</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.090740098169</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.638135031226</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.147425951827</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6290,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
         <v>199.803798091603</v>
@@ -6300,13 +6302,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
         <v>174.7633905351325</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2204.509362664223</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664223</v>
+        <v>286.9185690594782</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664223</v>
+        <v>286.9185690594782</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664223</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>2667.421249556559</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>2381.98245779846</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V28" t="n">
-        <v>2204.509362664223</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>2204.509362664223</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X28" t="n">
-        <v>2204.509362664223</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="Y28" t="n">
-        <v>2204.509362664223</v>
+        <v>457.1236869934889</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1661.744944327707</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C29" t="n">
-        <v>1661.744944327707</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D29" t="n">
-        <v>1661.744944327707</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M29" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O29" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
         <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991764</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2051.197549394651</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X29" t="n">
-        <v>1661.744944327707</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y29" t="n">
-        <v>1661.744944327707</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6527,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
         <v>199.803798091603</v>
@@ -6537,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K30" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="C31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="D31" t="n">
-        <v>350.7723652078352</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="E31" t="n">
-        <v>195.2135530670376</v>
+        <v>2387.961448048339</v>
       </c>
       <c r="F31" t="n">
-        <v>195.2135530670376</v>
+        <v>2387.961448048339</v>
       </c>
       <c r="G31" t="n">
-        <v>195.2135530670376</v>
+        <v>2387.961448048339</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2135530670376</v>
+        <v>2232.482897009833</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411551</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411551</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K31" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L31" t="n">
-        <v>308.0818086878571</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M31" t="n">
-        <v>494.3733870261211</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N31" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O31" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P31" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q31" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R31" t="n">
-        <v>839.6651608782449</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S31" t="n">
-        <v>636.8490770607943</v>
+        <v>2779.239312020902</v>
       </c>
       <c r="T31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="U31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="V31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="W31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="X31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.4054783053204</v>
+        <v>2543.520260189136</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2422.196584426363</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C32" t="n">
-        <v>2029.021082929294</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D32" t="n">
-        <v>1643.579954145961</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>1240.996429262506</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F32" t="n">
-        <v>824.1019907924837</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9392352804868</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H32" t="n">
-        <v>86.85618484697744</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M32" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O32" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
         <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991764</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X32" t="n">
-        <v>2422.196584426363</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y32" t="n">
-        <v>2422.196584426363</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6764,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
         <v>199.803798091603</v>
@@ -6774,22 +6776,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
         <v>1974.833293963354</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
         <v>677.5630210573304</v>
@@ -6883,25 +6885,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>834.5409361354704</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T34" t="n">
-        <v>834.5409361354704</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U34" t="n">
-        <v>834.5409361354704</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V34" t="n">
-        <v>568.5615909562946</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W34" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X34" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>779.3776796346933</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C35" t="n">
-        <v>386.2021781376239</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D35" t="n">
-        <v>386.2021781376239</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E35" t="n">
-        <v>386.2021781376239</v>
+        <v>738.3181701841793</v>
       </c>
       <c r="F35" t="n">
-        <v>386.2021781376239</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376239</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411462</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411462</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
         <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2934.674313386028</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2678.921583820626</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.814774524145</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>1965.815739492432</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X35" t="n">
-        <v>1576.363134425489</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y35" t="n">
-        <v>1179.87242534609</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +7001,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>207.7175872278004</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.49739787801356</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C37" t="n">
-        <v>92.49739787801356</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801356</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
         <v>677.5630210573304</v>
@@ -7117,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>92.49739787801356</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>92.49739787801356</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>92.49739787801356</v>
+        <v>796.2774386102695</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.49739787801356</v>
+        <v>573.1653774269129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1243.319282867973</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C38" t="n">
-        <v>850.1437813709033</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="D38" t="n">
-        <v>464.702652587571</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="E38" t="n">
-        <v>62.11912770411551</v>
+        <v>803.8289561363872</v>
       </c>
       <c r="F38" t="n">
-        <v>62.11912770411551</v>
+        <v>386.934517666365</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7205,19 +7207,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2800.756377757424</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W38" t="n">
-        <v>2429.757342725712</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X38" t="n">
-        <v>2040.304737658769</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1643.81402857937</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7238,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2779.239312020902</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C40" t="n">
-        <v>2779.239312020902</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D40" t="n">
-        <v>2779.239312020902</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E40" t="n">
-        <v>2779.239312020902</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F40" t="n">
-        <v>2691.714663140104</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G40" t="n">
-        <v>2523.460609239549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H40" t="n">
-        <v>2367.982058201043</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I40" t="n">
-        <v>2234.887632838121</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>2779.239312020902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>2779.239312020902</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>2779.239312020902</v>
+        <v>573.1653774269129</v>
       </c>
       <c r="V40" t="n">
-        <v>2779.239312020902</v>
+        <v>573.1653774269129</v>
       </c>
       <c r="W40" t="n">
-        <v>2779.239312020902</v>
+        <v>573.1653774269129</v>
       </c>
       <c r="X40" t="n">
-        <v>2779.239312020902</v>
+        <v>573.1653774269129</v>
       </c>
       <c r="Y40" t="n">
-        <v>2779.239312020902</v>
+        <v>573.1653774269129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2397.459527283501</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C41" t="n">
-        <v>2004.284025786432</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.8428970031</v>
+        <v>917.4010926270519</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.259372119644</v>
+        <v>514.8175677435963</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>97.92312927357409</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146826</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146826</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V41" t="n">
-        <v>2939.442830146826</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.442830146826</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X41" t="n">
-        <v>2939.442830146826</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y41" t="n">
-        <v>2797.954272994898</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3105.956385205775</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="C43" t="n">
-        <v>3105.956385205775</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="D43" t="n">
-        <v>2950.32327210829</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="E43" t="n">
-        <v>2794.764459967492</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="F43" t="n">
-        <v>2637.438525180465</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="G43" t="n">
-        <v>2469.184471279911</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H43" t="n">
-        <v>2313.705920241405</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I43" t="n">
-        <v>2204.509362664223</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J43" t="n">
-        <v>2204.509362664223</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K43" t="n">
-        <v>2286.344403774165</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L43" t="n">
-        <v>2450.472043647964</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M43" t="n">
-        <v>2636.763621986228</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N43" t="n">
         <v>2819.953256017438</v>
       </c>
       <c r="O43" t="n">
-        <v>2982.658023059146</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P43" t="n">
-        <v>3102.534188835724</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R43" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S43" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T43" t="n">
-        <v>3105.956385205775</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U43" t="n">
-        <v>3105.956385205775</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="V43" t="n">
-        <v>3105.956385205775</v>
+        <v>2604.257988194835</v>
       </c>
       <c r="W43" t="n">
-        <v>3105.956385205775</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="X43" t="n">
-        <v>3105.956385205775</v>
+        <v>2320.927586126013</v>
       </c>
       <c r="Y43" t="n">
-        <v>3105.956385205775</v>
+        <v>2320.927586126013</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>593.6317461087201</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C44" t="n">
-        <v>200.4562446116507</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D44" t="n">
-        <v>200.4562446116507</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E44" t="n">
-        <v>200.4562446116507</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F44" t="n">
-        <v>200.4562446116507</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G44" t="n">
-        <v>200.4562446116507</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>270.9233280874826</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>705.310815113048</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491297</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432348</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T44" t="n">
-        <v>2677.949313991764</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U44" t="n">
-        <v>2493.175650294653</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="V44" t="n">
-        <v>2151.068840998172</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.069805966459</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X44" t="n">
-        <v>1390.617200899516</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y44" t="n">
-        <v>994.1264918201171</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>861.4851108441464</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C45" t="n">
-        <v>710.8308804042387</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D45" t="n">
-        <v>580.741913025719</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G45" t="n">
-        <v>199.803798091603</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1760.293813047411</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2380.454662679751</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R45" t="n">
-        <v>2356.537619577816</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S45" t="n">
-        <v>2221.606942477685</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T45" t="n">
-        <v>2044.623130676593</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U45" t="n">
-        <v>1834.559987355235</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V45" t="n">
-        <v>1612.019985726302</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.902739859589</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X45" t="n">
-        <v>1192.595662209601</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y45" t="n">
-        <v>1013.281445285108</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.8910416299798</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C46" t="n">
-        <v>698.8910416299798</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D46" t="n">
-        <v>543.2579285324945</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E46" t="n">
-        <v>387.699116391697</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F46" t="n">
-        <v>230.37318160467</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878571</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261211</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R46" t="n">
-        <v>963.5661502456679</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S46" t="n">
-        <v>760.7500664282172</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T46" t="n">
-        <v>760.7500664282172</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U46" t="n">
-        <v>760.7500664282172</v>
+        <v>702.2337187680096</v>
       </c>
       <c r="V46" t="n">
-        <v>760.7500664282172</v>
+        <v>436.2543735888338</v>
       </c>
       <c r="W46" t="n">
-        <v>760.7500664282172</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="X46" t="n">
-        <v>698.8910416299798</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="Y46" t="n">
-        <v>698.8910416299798</v>
+        <v>152.9239715200114</v>
       </c>
     </row>
   </sheetData>
@@ -7997,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,7 +8060,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -8067,13 +8069,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>301.8549375253374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8225,7 +8227,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8304,7 +8306,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>447.5171231095475</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8535,10 +8537,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,10 +8771,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8783,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>168.5060516210921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,19 +9482,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236088</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9893,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294505</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10191,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,7 +10433,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10440,7 +10442,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>236.6660863673584</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10908,16 +10910,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>647.2923877624991</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11060,7 +11062,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.6668436110161</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11142,7 +11144,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,13 +11387,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>668.5665922884425</v>
+        <v>55.3908729831761</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>25.90589819983268</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22550,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>137.9162928690332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="3">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.0075731967453</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>383.4544661521806</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,25 +22944,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>60.39847475326043</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>78.72709640014719</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>79.58321836212843</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>61.90605388844381</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,16 +23184,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.7124589214581</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>84.56694802370976</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.84794205404563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23656,16 +23658,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.7124589214581</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>112.4408428809526</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>255.2027182432976</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>41.47292827764318</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>285.9539344591677</v>
+        <v>78.27981710513012</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.56686075100016</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24139,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>123.6552821209022</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24181,13 +24183,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>83.91153943350409</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>36.77630269881831</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.05665668438525</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24455,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>87.20445251673729</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24649,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>87.62118754448923</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>94.48071888709819</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>152.3195699869354</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.0696821071394</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>104.222698545529</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>112.4640591670265</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>152.3195699869354</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25123,25 +25125,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>73.05296101018054</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>152.3195699869358</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25202,19 +25204,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>216.5447648229872</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25333,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>240.3576544903974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>66.12369447580232</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>87.46389189424991</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25445,10 +25447,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697465</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>36.53773382964908</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>69.10327304716682</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>129.4495000633988</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>373.5851664031129</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25676,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25691,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.4521304081961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>51.31747213437802</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>23.65888910788279</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25837,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>70.26927520960723</v>
+        <v>72.0733758281678</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>107.1628259319616</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>170.4990844445917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435065</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435065</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435065</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623391.107043506</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623391.1070435061</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435061</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623391.1070435062</v>
+        <v>705558.9867824792</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>267167.6173043599</v>
       </c>
       <c r="C2" t="n">
-        <v>267167.6173043598</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="D2" t="n">
+        <v>267167.6173043599</v>
+      </c>
+      <c r="E2" t="n">
         <v>267167.61730436</v>
-      </c>
-      <c r="E2" t="n">
-        <v>267167.6173043599</v>
       </c>
       <c r="F2" t="n">
         <v>267167.61730436</v>
@@ -26338,22 +26340,22 @@
         <v>267167.6173043599</v>
       </c>
       <c r="K2" t="n">
-        <v>267167.6173043599</v>
+        <v>267167.61730436</v>
       </c>
       <c r="L2" t="n">
-        <v>267167.6173043599</v>
+        <v>267167.61730436</v>
       </c>
       <c r="M2" t="n">
         <v>267167.6173043599</v>
       </c>
       <c r="N2" t="n">
-        <v>267167.6173043599</v>
+        <v>267167.61730436</v>
       </c>
       <c r="O2" t="n">
-        <v>267167.6173043599</v>
+        <v>267167.61730436</v>
       </c>
       <c r="P2" t="n">
-        <v>267167.6173043598</v>
+        <v>302382.4229067769</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>140033.8089230486</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="C4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="D4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="C4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="E4" t="n">
-        <v>548.8206074562065</v>
-      </c>
       <c r="F4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
         <v>548.8206074562066</v>
@@ -26439,13 +26441,13 @@
         <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
         <v>548.8206074562065</v>
@@ -26454,10 +26456,10 @@
         <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>548.8206074562065</v>
+        <v>636.8259559912959</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="L5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512778</v>
+        <v>60977.55903357439</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74438.69577805299</v>
+        <v>-74438.6957780529</v>
       </c>
       <c r="C6" t="n">
-        <v>185780.6596417758</v>
+        <v>185780.6596417759</v>
       </c>
       <c r="D6" t="n">
-        <v>185780.659641776</v>
+        <v>185780.6596417759</v>
       </c>
       <c r="E6" t="n">
-        <v>219408.2596417759</v>
+        <v>219408.259641776</v>
       </c>
       <c r="F6" t="n">
         <v>219408.259641776</v>
@@ -26543,25 +26545,25 @@
         <v>219408.2596417759</v>
       </c>
       <c r="J6" t="n">
-        <v>16244.54652908096</v>
+        <v>16244.54652908089</v>
       </c>
       <c r="K6" t="n">
-        <v>219408.2596417759</v>
+        <v>219408.259641776</v>
       </c>
       <c r="L6" t="n">
-        <v>219408.2596417759</v>
+        <v>219408.259641776</v>
       </c>
       <c r="M6" t="n">
         <v>219408.2596417759</v>
       </c>
       <c r="N6" t="n">
-        <v>219408.2596417759</v>
+        <v>219408.259641776</v>
       </c>
       <c r="O6" t="n">
-        <v>219408.2596417759</v>
+        <v>219408.259641776</v>
       </c>
       <c r="P6" t="n">
-        <v>219408.2596417758</v>
+        <v>100734.2289941626</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980865</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>949.5153943482912</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980865</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>173.0262980468472</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.598777936876729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.132234546038803</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>50.82052891999133</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>76.16679898798328</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>94.4916492736745</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>105.140166408606</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>106.841444221757</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>86.10501579529479</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>64.66128093089692</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.04790223495013831</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.094142622447042</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.03043577938659</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>51.73344638085047</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>81.1755764299571</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.32405239259178</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.22522926425279</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.17746661948197</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>5.95081471664996</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.291333819268315</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02107726582048394</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.388019664566043</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.07726896767328</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>39.93218158927715</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>42.10288658089187</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.1017740425769</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>37.96414084322375</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.49084778151105</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.680811551097239</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.147616812214764</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01465042738997573</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>216.4828246711707</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34945,7 +34947,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>362.1450102553808</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35503,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>75.81849273220321</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676948</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110584</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37160,7 +37162,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>554.9052657131872</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317787</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>438.7752394197629</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>656.6562270596975</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>639.9841549666681</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>545.3717914577253</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>251.373967941956</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N45" t="n">
-        <v>583.1944794342759</v>
+        <v>53.34281252160122</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394325.618954355</v>
+        <v>1389692.540296051</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1716675.474930527</v>
+        <v>1667317.432543013</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7798735.927490108</v>
+        <v>7966425.477977808</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7255797.907030562</v>
+        <v>7208348.003873006</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>276.9786965066186</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>95.98918911403641</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.10361286409312</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.52529077486052</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>26.80574342287044</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>57.37052737633138</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0197694717892</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -1423,7 +1423,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -1432,13 +1432,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>206.4442074349628</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,10 +1587,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>64.41872800020381</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>130.3553607729761</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.492541022383</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>269.1458746145464</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>256.7115579699417</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>330.7513108517467</v>
+        <v>48.95280510412115</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.26848340721873</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>256.7115579699416</v>
+        <v>271.0092307840453</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>194.9632162960284</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>66.68447052885355</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>229.2671475085634</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.79877150265222</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,7 +2809,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>233.2385090293384</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>98.31353257682871</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>27.69379900215345</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>242.6444645340558</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>302.148007373868</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>233.2385090293384</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V34" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>260.4059240983862</v>
+        <v>302.148007373868</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>165.6158245190444</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>321.5672360626269</v>
+        <v>256.7115579699411</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1349037771192</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35.44596155376397</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>24.20676373667649</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.2540412271709</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>114.7890777533881</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0739242066294</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5388453083828</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>84.32029961295804</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882093</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340598055</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124799</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9226398638123</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.19311257242664</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012335</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2535.796644191037</v>
+        <v>1120.512219102314</v>
       </c>
       <c r="C2" t="n">
-        <v>2142.621142693967</v>
+        <v>727.3367176052443</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>341.895588821912</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.956385205776</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X2" t="n">
-        <v>3105.956385205776</v>
+        <v>1917.49767389311</v>
       </c>
       <c r="Y2" t="n">
-        <v>2936.291389902433</v>
+        <v>1521.006964813711</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N3" t="n">
-        <v>1345.668748541356</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O3" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.9804238284923</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C5" t="n">
-        <v>909.9804238284923</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D5" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E5" t="n">
-        <v>524.5392950451601</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F5" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>1706.965878619288</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1310.475169539889</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>793.3610323116571</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>637.7279192141718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>482.1691070733743</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>324.8431722863473</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>156.5891183857928</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
         <v>62.11912770411553</v>
@@ -4752,25 +4752,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.652680240431</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C8" t="n">
-        <v>522.652680240431</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D8" t="n">
-        <v>522.652680240431</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>120.0691553569755</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F8" t="n">
-        <v>120.0691553569755</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>120.0691553569755</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>120.0691553569755</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4834,22 +4834,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.638135031227</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y8" t="n">
-        <v>923.1474259518279</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M9" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
         <v>1223.947919817482</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>893.6517152721435</v>
+        <v>1334.609235012252</v>
       </c>
       <c r="C11" t="n">
-        <v>500.4762137750741</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="D11" t="n">
-        <v>200.4562446116507</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E11" t="n">
-        <v>200.4562446116507</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F11" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G11" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
         <v>200.4562446116507</v>
@@ -5071,22 +5071,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W11" t="n">
-        <v>2080.089775129883</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X11" t="n">
-        <v>1690.637170062939</v>
+        <v>1543.13873747181</v>
       </c>
       <c r="Y11" t="n">
-        <v>1294.14646098354</v>
+        <v>1334.609235012252</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5223,19 +5223,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
         <v>62.11912770411553</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X14" t="n">
-        <v>3067.963471491298</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5472,16 +5472,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>463.5064828494752</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>240.3944216661186</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>727.159149013858</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C17" t="n">
-        <v>333.9836475167886</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D17" t="n">
-        <v>62.11912770411552</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411552</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5545,22 +5545,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2882.455782765192</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2626.703053199791</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1913.597208871597</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X17" t="n">
-        <v>1524.144603804654</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.653894725255</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5700,25 +5700,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>525.0310145964513</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U19" t="n">
-        <v>239.5922228383523</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V19" t="n">
-        <v>62.11912770411552</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.411516051555</v>
+        <v>1292.766560750923</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.236014554486</v>
+        <v>899.5910592538539</v>
       </c>
       <c r="D20" t="n">
-        <v>798.7948857711535</v>
+        <v>514.1499304705217</v>
       </c>
       <c r="E20" t="n">
-        <v>396.211360887698</v>
+        <v>111.5664055870662</v>
       </c>
       <c r="F20" t="n">
-        <v>396.211360887698</v>
+        <v>111.5664055870662</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5785,19 +5785,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V20" t="n">
-        <v>2763.849575909294</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W20" t="n">
-        <v>2763.849575909294</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X20" t="n">
-        <v>2374.396970842351</v>
+        <v>2089.752015541719</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.906261762952</v>
+        <v>1693.26130646232</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>207.7175872278004</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O21" t="n">
         <v>1974.833293963354</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2403.337642228635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2403.337642228635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2403.337642228635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2403.337642228635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2403.337642228635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2235.083588328081</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>2822.625983136953</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>2588.545660919936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2588.545660919936</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1919.518325348037</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C23" t="n">
-        <v>1526.342823850968</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D23" t="n">
-        <v>1140.901695067635</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="E23" t="n">
-        <v>738.3181701841797</v>
+        <v>752.7602639357997</v>
       </c>
       <c r="F23" t="n">
-        <v>321.4237317141575</v>
+        <v>335.8658254657774</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -5989,19 +5989,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129441</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6028,13 +6028,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X23" t="n">
-        <v>2716.503780138833</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.013071059434</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="24">
@@ -6074,10 +6074,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
         <v>1863.93438008877</v>
@@ -6174,19 +6174,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>525.0310145964513</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V25" t="n">
-        <v>259.0516694172755</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W25" t="n">
-        <v>259.0516694172755</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X25" t="n">
         <v>62.11912770411553</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>522.652680240431</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C26" t="n">
-        <v>129.4771787433615</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D26" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
         <v>565.7512566404055</v>
@@ -6244,34 +6244,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.09074009817</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.638135031227</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.1474259518279</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C28" t="n">
-        <v>286.9185690594782</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D28" t="n">
-        <v>286.9185690594782</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E28" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K28" t="n">
         <v>143.9541688140574</v>
@@ -6417,19 +6417,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X28" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y28" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2073.376476849992</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C29" t="n">
-        <v>1680.200975352922</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D29" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E29" t="n">
-        <v>892.1763216861345</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F29" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411552</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411552</v>
@@ -6463,10 +6463,10 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L29" t="n">
         <v>1059.071548358934</v>
@@ -6496,19 +6496,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>2508.096846343893</v>
       </c>
       <c r="W29" t="n">
-        <v>3105.956385205776</v>
+        <v>2508.096846343893</v>
       </c>
       <c r="X29" t="n">
-        <v>2870.361931640788</v>
+        <v>2118.64424127695</v>
       </c>
       <c r="Y29" t="n">
-        <v>2473.871222561389</v>
+        <v>2019.337642714496</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2543.520260189136</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C31" t="n">
-        <v>2543.520260189136</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D31" t="n">
-        <v>2543.520260189136</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E31" t="n">
-        <v>2387.961448048339</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F31" t="n">
-        <v>2387.961448048339</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G31" t="n">
-        <v>2387.961448048339</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H31" t="n">
-        <v>2232.482897009833</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>2779.239312020902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T31" t="n">
-        <v>2543.520260189136</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U31" t="n">
-        <v>2543.520260189136</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V31" t="n">
-        <v>2543.520260189136</v>
+        <v>515.6546477069487</v>
       </c>
       <c r="W31" t="n">
-        <v>2543.520260189136</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="X31" t="n">
-        <v>2543.520260189136</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="Y31" t="n">
-        <v>2543.520260189136</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1548.519290316324</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>769.9026600359225</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861345</v>
+        <v>367.319135152467</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G32" t="n">
         <v>62.11912770411552</v>
@@ -6700,7 +6700,7 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404055</v>
@@ -6739,13 +6739,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>3105.956385205776</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="X32" t="n">
-        <v>2870.361931640788</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>1949.014036027721</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6885,16 +6885,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>525.0310145964513</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U34" t="n">
-        <v>239.5922228383523</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V34" t="n">
-        <v>62.11912770411552</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
         <v>62.11912770411552</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1919.518325348037</v>
+        <v>1548.519290316324</v>
       </c>
       <c r="C35" t="n">
-        <v>1526.342823850967</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D35" t="n">
-        <v>1140.901695067635</v>
+        <v>769.9026600359225</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3181701841793</v>
+        <v>367.319135152467</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G35" t="n">
         <v>62.11912770411552</v>
@@ -6937,13 +6937,13 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
         <v>1605.072448403515</v>
@@ -6976,13 +6976,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="X35" t="n">
-        <v>2716.503780138833</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y35" t="n">
-        <v>2320.013071059434</v>
+        <v>1949.014036027721</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>207.7175872278004</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L36" t="n">
-        <v>691.2836731261136</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M36" t="n">
-        <v>1319.055322752795</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C37" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D37" t="n">
         <v>62.11912770411552</v>
@@ -7125,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X37" t="n">
-        <v>796.2774386102695</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y37" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1206.412481019843</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C38" t="n">
-        <v>1206.412481019843</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.412481019843</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E38" t="n">
-        <v>803.8289561363872</v>
+        <v>738.3181701841793</v>
       </c>
       <c r="F38" t="n">
-        <v>386.934517666365</v>
+        <v>321.423731714157</v>
       </c>
       <c r="G38" t="n">
         <v>62.11912770411552</v>
@@ -7177,7 +7177,7 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7210,16 +7210,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.849575909294</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2392.850540877582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>2003.397935810639</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.90722673124</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C40" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D40" t="n">
         <v>62.11912770411552</v>
@@ -7365,19 +7365,19 @@
         <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>573.1653774269129</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V40" t="n">
-        <v>573.1653774269129</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X40" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1696.017722907454</v>
+        <v>1181.96120451815</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.842221410384</v>
+        <v>788.7857030210803</v>
       </c>
       <c r="D41" t="n">
-        <v>917.4010926270519</v>
+        <v>788.7857030210803</v>
       </c>
       <c r="E41" t="n">
-        <v>514.8175677435963</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F41" t="n">
-        <v>97.92312927357409</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7441,22 +7441,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2882.455782765193</v>
+        <v>3081.505108704083</v>
       </c>
       <c r="V41" t="n">
-        <v>2882.455782765193</v>
+        <v>2739.398299407601</v>
       </c>
       <c r="W41" t="n">
-        <v>2882.455782765193</v>
+        <v>2368.399264375889</v>
       </c>
       <c r="X41" t="n">
-        <v>2493.00317769825</v>
+        <v>1978.946659308946</v>
       </c>
       <c r="Y41" t="n">
-        <v>2096.512468618851</v>
+        <v>1582.455950229547</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>2870.237333374011</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>2604.257988194835</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>2320.927586126013</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>2320.927586126013</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2086.613754494874</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C44" t="n">
-        <v>1693.438252997805</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D44" t="n">
-        <v>1307.997124214472</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4135993310169</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F44" t="n">
-        <v>488.5191608609948</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G44" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874826</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>705.310815113048</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1292.177839612515</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401615</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818617</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361765</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130628</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3615.158623649095</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>3273.051814352613</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>3273.051814352613</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2883.59920928567</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y44" t="n">
-        <v>2487.108500206271</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>860.7363532310205</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>710.0821227911127</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>579.9931554125931</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>443.5466645234808</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.1148584066127</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>199.3786510244077</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>114.206631213339</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786331</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271317</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>999.3489583586868</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1707.484428651026</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.293813047411</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2352.277072610002</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2348.452270245762</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2219.532517101843</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2043.853082895972</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1833.811229742109</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1611.271228113176</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.153982246463</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1191.846904596475</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.532687671982</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>188.689628895047</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422311</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955781</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289384</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.493221405438</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1196.529419371396</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045142</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045142</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045142</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>987.6577121146037</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>702.2337187680096</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>436.2543735888338</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>152.9239715200114</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>152.9239715200114</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.9239715200114</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,10 +8060,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
@@ -8072,13 +8072,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P3" t="n">
-        <v>373.8515870339854</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8534,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046928</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8774,7 +8774,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9011,7 +9011,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9257,10 +9257,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9482,7 +9482,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>236.6660863673584</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9494,7 +9494,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9722,13 +9722,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10439,16 +10439,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O33" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>236.6660863673584</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,13 +10907,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>373.8515870339854</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11387,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>55.3908729831761</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983268</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>121.5789931280023</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22609,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70.5823242475125</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>383.4544661521806</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,22 +22944,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>60.39847475326043</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22992,16 +22992,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>354.7809740726285</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>79.58321836212843</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>84.56694802370976</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>186.081594553642</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>317.1679894952951</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -23560,10 +23560,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.1704412156288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>6.863397482005269</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>112.4408428809526</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23785,16 +23785,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>110.5774867114537</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>87.62118754448966</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23983,7 +23983,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>78.27981710513012</v>
+        <v>360.0783228527557</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24025,13 +24025,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>123.6552821209022</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24180,19 +24180,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>152.3195699869353</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>36.77630269881831</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>314.9022469666454</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>138.021897172832</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>87.20445251673729</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24657,19 +24657,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24736,19 +24736,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>152.3195699869354</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>294.2122694117762</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24855,10 +24855,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>104.0696821071394</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>20.67508719332818</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>110.577486711454</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24979,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>152.3195699869354</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V34" t="n">
-        <v>87.62118754448966</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>152.3195699869358</v>
+        <v>110.577486711454</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25216,7 +25216,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.12369447580232</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>87.46389189424991</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25450,10 +25450,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>129.4495000633988</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>373.5851664031129</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25681,16 +25681,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>228.9884385330709</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>51.31747213437802</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>165.7080202947461</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831354</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270197</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717815</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>72.0733758281678</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.1628259319616</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416196</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685221</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.5851438286122</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281789</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435063</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435063</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435063</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435063</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623391.1070435061</v>
+        <v>623391.1070435063</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623391.1070435065</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623391.1070435062</v>
+        <v>623391.1070435061</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623391.1070435061</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705558.9867824792</v>
+        <v>623391.1070435062</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>267167.6173043599</v>
       </c>
       <c r="E2" t="n">
-        <v>267167.61730436</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="F2" t="n">
-        <v>267167.61730436</v>
+        <v>267167.6173043598</v>
       </c>
       <c r="G2" t="n">
-        <v>267167.61730436</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="H2" t="n">
         <v>267167.6173043599</v>
@@ -26340,7 +26340,7 @@
         <v>267167.6173043599</v>
       </c>
       <c r="K2" t="n">
-        <v>267167.61730436</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="L2" t="n">
         <v>267167.61730436</v>
@@ -26349,13 +26349,13 @@
         <v>267167.6173043599</v>
       </c>
       <c r="N2" t="n">
+        <v>267167.6173043599</v>
+      </c>
+      <c r="O2" t="n">
+        <v>267167.6173043599</v>
+      </c>
+      <c r="P2" t="n">
         <v>267167.61730436</v>
-      </c>
-      <c r="O2" t="n">
-        <v>267167.61730436</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302382.4229067769</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>140033.8089230486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="D4" t="n">
         <v>548.8206074562065</v>
@@ -26429,22 +26429,22 @@
         <v>548.8206074562066</v>
       </c>
       <c r="F4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="G4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="I4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="L4" t="n">
         <v>548.8206074562066</v>
@@ -26453,13 +26453,13 @@
         <v>548.8206074562065</v>
       </c>
       <c r="N4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="O4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>636.8259559912959</v>
+        <v>548.8206074562065</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="K5" t="n">
         <v>47210.53705512779</v>
@@ -26511,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357439</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74438.6957780529</v>
+        <v>-74969.79080991818</v>
       </c>
       <c r="C6" t="n">
-        <v>185780.6596417759</v>
+        <v>185249.5646099107</v>
       </c>
       <c r="D6" t="n">
-        <v>185780.6596417759</v>
+        <v>185249.5646099107</v>
       </c>
       <c r="E6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="F6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099106</v>
       </c>
       <c r="G6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="H6" t="n">
-        <v>219408.2596417759</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="I6" t="n">
-        <v>219408.2596417759</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="J6" t="n">
-        <v>16244.54652908089</v>
+        <v>15713.45149721573</v>
       </c>
       <c r="K6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="L6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099109</v>
       </c>
       <c r="M6" t="n">
-        <v>219408.2596417759</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="N6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="O6" t="n">
-        <v>219408.259641776</v>
+        <v>218877.1646099107</v>
       </c>
       <c r="P6" t="n">
-        <v>100734.2289941626</v>
+        <v>218877.1646099108</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26804,16 +26804,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>776.489096301444</v>
@@ -26831,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482912</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>173.0262980468472</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.598777936876729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038803</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144012</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999133</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798328</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>94.4916492736745</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>105.140166408606</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>106.841444221757</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119391</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529479</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089692</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733287</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657848</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677883</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013831</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713558</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447042</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938659</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085047</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287048</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>81.1755764299571</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259178</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425279</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948197</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031805</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>5.95081471664996</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268315</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048394</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162215</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566043</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.07726896767328</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530686</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064827</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927715</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089187</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41.1017740425769</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322375</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937281</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151105</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513665</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097239</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214764</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997573</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
@@ -34792,13 +34792,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P3" t="n">
-        <v>286.7682222146707</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553808</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35977,10 +35977,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36214,7 +36214,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36442,13 +36442,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O33" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>286.7682222146707</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460803</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>438.7752394197629</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418855</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596975</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666681</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577253</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018825</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.373967941956</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871398</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793485</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306452</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>53.34281252160122</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470619</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274582</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112971</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336838</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>226.1418084175357</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>202.3123903803026</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>153.571917137331</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166354</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
